--- a/level-3/codeforces/phase-3-2/codeforces-phase-3-2.xlsx
+++ b/level-3/codeforces/phase-3-2/codeforces-phase-3-2.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C273B9-19F2-4A8D-ABF0-8B4ACDE83992}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7B4CCF-51C5-49BF-BEED-FDDD5E58F0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="codeforces level 3.2" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces 3.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -660,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -676,16 +687,13 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -733,7 +741,672 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="221">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1905,82 +2578,82 @@
     <col min="2" max="8" width="7.109375" style="3" customWidth="1"/>
     <col min="9" max="13" width="15.109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="62.5546875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="62.5546875" style="13" customWidth="1"/>
     <col min="16" max="16" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="5">
         <f t="shared" ref="B3:G3" si="0">SUM(B4:B788)</f>
         <v>12</v>
@@ -2043,2715 +2716,2715 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>218</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="13"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>379</v>
       </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>404</v>
       </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>281</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>477</v>
       </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>67</v>
       </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>147</v>
       </c>
-      <c r="B10" s="12">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>300</v>
       </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>202</v>
       </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="P12" s="13"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>144</v>
       </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>464</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="13"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>143</v>
       </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>285</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>35</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="13"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>94</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>252</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="13"/>
+      <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>403</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12">
-        <v>1</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="13"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>222</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="13"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>333</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="13"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>376</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="13"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>383</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="13"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>395</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="13"/>
+      <c r="P25" s="12"/>
     </row>
     <row r="26" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>482</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="13"/>
+      <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>358</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="P27" s="13"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>457</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="P28" s="13"/>
+      <c r="P28" s="12"/>
     </row>
     <row r="29" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>108</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="13"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>192</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="11" t="s">
+      <c r="O30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="13"/>
+      <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>354</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11">
+        <v>1</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P31" s="13"/>
+      <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>355</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="13"/>
+      <c r="P32" s="12"/>
     </row>
     <row r="33" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>405</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P33" s="13"/>
+      <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>434</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="13"/>
+      <c r="P34" s="12"/>
     </row>
     <row r="35" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>466</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P35" s="13"/>
+      <c r="P35" s="12"/>
     </row>
     <row r="36" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>282</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="13"/>
+      <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>296</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="P37" s="13"/>
+      <c r="P37" s="12"/>
     </row>
     <row r="38" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <v>75</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11">
+        <v>1</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="P38" s="13"/>
+      <c r="P38" s="12"/>
     </row>
     <row r="39" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>436</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="P39" s="13"/>
+      <c r="P39" s="12"/>
     </row>
     <row r="40" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <v>473</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="11" t="s">
+      <c r="O40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="P40" s="13"/>
+      <c r="P40" s="12"/>
     </row>
     <row r="41" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <v>135</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="11" t="s">
+      <c r="O41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="P41" s="13"/>
+      <c r="P41" s="12"/>
     </row>
     <row r="42" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <v>362</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12">
-        <v>1</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11">
+        <v>1</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="13"/>
+      <c r="P42" s="12"/>
     </row>
     <row r="43" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <v>433</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12">
-        <v>1</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="11" t="s">
+      <c r="O43" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P43" s="13"/>
+      <c r="P43" s="12"/>
     </row>
     <row r="44" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <v>453</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12">
-        <v>1</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="11" t="s">
+      <c r="O44" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P44" s="13"/>
+      <c r="P44" s="12"/>
     </row>
     <row r="45" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="A45" s="11">
         <v>119</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11">
+        <v>1</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P45" s="13"/>
+      <c r="P45" s="12"/>
     </row>
     <row r="46" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <v>168</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="11" t="s">
+      <c r="O46" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P46" s="13"/>
+      <c r="P46" s="12"/>
     </row>
     <row r="47" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>243</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P47" s="13"/>
+      <c r="P47" s="12"/>
     </row>
     <row r="48" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <v>260</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12">
-        <v>1</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11">
+        <v>1</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P48" s="13"/>
+      <c r="P48" s="12"/>
     </row>
     <row r="49" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+      <c r="A49" s="11">
         <v>388</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11">
+        <v>1</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="P49" s="13"/>
+      <c r="P49" s="12"/>
     </row>
     <row r="50" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <v>394</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11">
+        <v>1</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="13"/>
+      <c r="P50" s="12"/>
     </row>
     <row r="51" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+      <c r="A51" s="11">
         <v>420</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12">
-        <v>1</v>
-      </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11">
+        <v>1</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P51" s="13"/>
+      <c r="P51" s="12"/>
     </row>
     <row r="52" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <v>207</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12">
-        <v>1</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
+        <v>1</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P52" s="13"/>
+      <c r="P52" s="12"/>
     </row>
     <row r="53" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+      <c r="A53" s="11">
         <v>314</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12">
-        <v>1</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11">
+        <v>1</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P53" s="13"/>
+      <c r="P53" s="12"/>
     </row>
     <row r="54" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+      <c r="A54" s="11">
         <v>80</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12">
-        <v>1</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
+        <v>1</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="P54" s="13"/>
+      <c r="P54" s="12"/>
     </row>
     <row r="55" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+      <c r="A55" s="11">
         <v>225</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12">
-        <v>1</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11">
+        <v>1</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
       <c r="N55" s="8"/>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P55" s="13"/>
+      <c r="P55" s="12"/>
     </row>
     <row r="56" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+      <c r="A56" s="11">
         <v>112</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12">
-        <v>1</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="8"/>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="P56" s="13"/>
+      <c r="P56" s="12"/>
     </row>
     <row r="57" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
+      <c r="A57" s="11">
         <v>169</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12">
-        <v>1</v>
-      </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P57" s="13"/>
+      <c r="P57" s="12"/>
     </row>
     <row r="58" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+      <c r="A58" s="11">
         <v>174</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12">
-        <v>1</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="8"/>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P58" s="13"/>
+      <c r="P58" s="12"/>
     </row>
     <row r="59" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <v>184</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12">
-        <v>1</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="8"/>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P59" s="13"/>
+      <c r="P59" s="12"/>
     </row>
     <row r="60" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
+      <c r="A60" s="11">
         <v>205</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12">
-        <v>1</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="P60" s="13"/>
+      <c r="P60" s="12"/>
     </row>
     <row r="61" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
+      <c r="A61" s="11">
         <v>241</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12">
-        <v>1</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P61" s="13"/>
+      <c r="P61" s="12"/>
     </row>
     <row r="62" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
+      <c r="A62" s="11">
         <v>293</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12">
-        <v>1</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="P62" s="13"/>
+      <c r="P62" s="12"/>
     </row>
     <row r="63" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
+      <c r="A63" s="11">
         <v>316</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11">
+        <v>1</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="P63" s="13"/>
+      <c r="P63" s="12"/>
     </row>
     <row r="64" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
+      <c r="A64" s="11">
         <v>206</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12">
-        <v>1</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11">
+        <v>1</v>
+      </c>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="8"/>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P64" s="13"/>
+      <c r="P64" s="12"/>
     </row>
     <row r="65" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
+      <c r="A65" s="11">
         <v>295</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12">
-        <v>1</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11">
+        <v>1</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
       <c r="N65" s="8"/>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P65" s="13"/>
+      <c r="P65" s="12"/>
     </row>
     <row r="66" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
+      <c r="A66" s="11">
         <v>73</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12">
-        <v>1</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11">
+        <v>1</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="P66" s="13"/>
+      <c r="P66" s="12"/>
     </row>
     <row r="67" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12">
+      <c r="A67" s="11">
         <v>240</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12">
-        <v>1</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11">
+        <v>1</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="8"/>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="P67" s="13"/>
+      <c r="P67" s="12"/>
     </row>
     <row r="68" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12">
+      <c r="A68" s="11">
         <v>268</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12">
-        <v>1</v>
-      </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11">
+        <v>1</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
       <c r="N68" s="8"/>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="P68" s="13"/>
+      <c r="P68" s="12"/>
     </row>
     <row r="69" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
+      <c r="A69" s="11">
         <v>114</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12">
-        <v>1</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11">
+        <v>1</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P69" s="13"/>
+      <c r="P69" s="12"/>
     </row>
     <row r="70" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
+      <c r="A70" s="11">
         <v>146</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12">
-        <v>1</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11">
+        <v>1</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="P70" s="13"/>
+      <c r="P70" s="12"/>
     </row>
     <row r="71" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
+      <c r="A71" s="11">
         <v>200</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12">
-        <v>1</v>
-      </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11">
+        <v>1</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="P71" s="13"/>
+      <c r="P71" s="12"/>
     </row>
     <row r="72" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12">
+      <c r="A72" s="11">
         <v>201</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12">
-        <v>1</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11">
+        <v>1</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="11" t="s">
+      <c r="O72" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P72" s="13"/>
+      <c r="P72" s="12"/>
     </row>
     <row r="73" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12">
+      <c r="A73" s="11">
         <v>238</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12">
-        <v>1</v>
-      </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11">
+        <v>1</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
       <c r="N73" s="8"/>
-      <c r="O73" s="11" t="s">
+      <c r="O73" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P73" s="13"/>
+      <c r="P73" s="12"/>
     </row>
     <row r="74" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
+      <c r="A74" s="11">
         <v>242</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12">
-        <v>1</v>
-      </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11">
+        <v>1</v>
+      </c>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="P74" s="13"/>
+      <c r="P74" s="12"/>
     </row>
     <row r="75" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12">
+      <c r="A75" s="11">
         <v>249</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12">
-        <v>1</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
       <c r="N75" s="8"/>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="P75" s="13"/>
+      <c r="P75" s="12"/>
     </row>
     <row r="76" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
+      <c r="A76" s="11">
         <v>259</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12">
-        <v>1</v>
-      </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11">
+        <v>1</v>
+      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
       <c r="N76" s="8"/>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="P76" s="13"/>
+      <c r="P76" s="12"/>
     </row>
     <row r="77" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="12">
+      <c r="A77" s="11">
         <v>297</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12">
-        <v>1</v>
-      </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11">
+        <v>1</v>
+      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
       <c r="N77" s="8"/>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P77" s="13"/>
+      <c r="P77" s="12"/>
     </row>
     <row r="78" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12">
+      <c r="A78" s="11">
         <v>298</v>
       </c>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12">
-        <v>1</v>
-      </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11">
+        <v>1</v>
+      </c>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
       <c r="N78" s="8"/>
-      <c r="O78" s="11" t="s">
+      <c r="O78" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="P78" s="13"/>
+      <c r="P78" s="12"/>
     </row>
     <row r="79" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12">
+      <c r="A79" s="11">
         <v>313</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12">
-        <v>1</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11">
+        <v>1</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
       <c r="N79" s="8"/>
-      <c r="O79" s="11" t="s">
+      <c r="O79" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P79" s="13"/>
+      <c r="P79" s="12"/>
     </row>
     <row r="80" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12">
+      <c r="A80" s="11">
         <v>372</v>
       </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12">
-        <v>1</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11">
+        <v>1</v>
+      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
       <c r="N80" s="8"/>
-      <c r="O80" s="11" t="s">
+      <c r="O80" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P80" s="13"/>
+      <c r="P80" s="12"/>
     </row>
     <row r="81" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12">
+      <c r="A81" s="11">
         <v>386</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12">
-        <v>1</v>
-      </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
       <c r="N81" s="8"/>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P81" s="13"/>
+      <c r="P81" s="12"/>
     </row>
     <row r="82" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12">
+      <c r="A82" s="11">
         <v>443</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12">
-        <v>1</v>
-      </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11">
+        <v>1</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
       <c r="N82" s="8"/>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="P82" s="13"/>
+      <c r="P82" s="12"/>
     </row>
     <row r="83" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="12">
+      <c r="A83" s="11">
         <v>461</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12">
-        <v>1</v>
-      </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11">
+        <v>1</v>
+      </c>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
       <c r="N83" s="8"/>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="P83" s="13"/>
+      <c r="P83" s="12"/>
     </row>
     <row r="84" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12">
+      <c r="A84" s="11">
         <v>102</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12">
-        <v>1</v>
-      </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11">
+        <v>1</v>
+      </c>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
       <c r="N84" s="8"/>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P84" s="13"/>
+      <c r="P84" s="12"/>
     </row>
     <row r="85" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12">
+      <c r="A85" s="11">
         <v>165</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12">
-        <v>1</v>
-      </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11">
+        <v>1</v>
+      </c>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
       <c r="N85" s="8"/>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="P85" s="13"/>
+      <c r="P85" s="12"/>
     </row>
     <row r="86" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12">
+      <c r="A86" s="11">
         <v>189</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12">
-        <v>1</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11">
+        <v>1</v>
+      </c>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
       <c r="N86" s="8"/>
-      <c r="O86" s="11" t="s">
+      <c r="O86" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P86" s="13"/>
+      <c r="P86" s="12"/>
     </row>
     <row r="87" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12">
+      <c r="A87" s="11">
         <v>196</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12">
-        <v>1</v>
-      </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11">
+        <v>1</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
       <c r="N87" s="8"/>
-      <c r="O87" s="11" t="s">
+      <c r="O87" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P87" s="13"/>
+      <c r="P87" s="12"/>
     </row>
     <row r="88" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12">
+      <c r="A88" s="11">
         <v>198</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12">
-        <v>1</v>
-      </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11">
+        <v>1</v>
+      </c>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
       <c r="N88" s="8"/>
-      <c r="O88" s="11" t="s">
+      <c r="O88" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P88" s="13"/>
+      <c r="P88" s="12"/>
     </row>
     <row r="89" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12">
+      <c r="A89" s="11">
         <v>239</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12">
-        <v>1</v>
-      </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11">
+        <v>1</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
       <c r="N89" s="8"/>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="P89" s="13"/>
+      <c r="P89" s="12"/>
     </row>
     <row r="90" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12">
+      <c r="A90" s="11">
         <v>272</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12">
-        <v>1</v>
-      </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11">
+        <v>1</v>
+      </c>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
       <c r="N90" s="8"/>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="P90" s="13"/>
+      <c r="P90" s="12"/>
     </row>
     <row r="91" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="12">
+      <c r="A91" s="11">
         <v>315</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12">
-        <v>1</v>
-      </c>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11">
+        <v>1</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
       <c r="N91" s="8"/>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P91" s="13"/>
+      <c r="P91" s="12"/>
     </row>
     <row r="92" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12">
+      <c r="A92" s="11">
         <v>465</v>
       </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12">
-        <v>1</v>
-      </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11">
+        <v>1</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
       <c r="N92" s="8"/>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="P92" s="13"/>
+      <c r="P92" s="12"/>
     </row>
     <row r="93" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="12">
+      <c r="A93" s="11">
         <v>69</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12">
-        <v>1</v>
-      </c>
-      <c r="H93" s="12"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11">
+        <v>1</v>
+      </c>
+      <c r="H93" s="11"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="8"/>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="P93" s="13"/>
+      <c r="P93" s="12"/>
     </row>
     <row r="94" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12">
+      <c r="A94" s="11">
         <v>106</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12">
-        <v>1</v>
-      </c>
-      <c r="H94" s="12"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11">
+        <v>1</v>
+      </c>
+      <c r="H94" s="11"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
       <c r="N94" s="8"/>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="P94" s="13"/>
+      <c r="P94" s="12"/>
     </row>
     <row r="95" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12">
+      <c r="A95" s="11">
         <v>164</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12">
-        <v>1</v>
-      </c>
-      <c r="H95" s="12"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11">
+        <v>1</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
       <c r="N95" s="8"/>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="P95" s="13"/>
+      <c r="P95" s="12"/>
     </row>
     <row r="96" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12">
+      <c r="A96" s="11">
         <v>166</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12">
-        <v>1</v>
-      </c>
-      <c r="H96" s="12"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11">
+        <v>1</v>
+      </c>
+      <c r="H96" s="11"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="8"/>
-      <c r="O96" s="11" t="s">
+      <c r="O96" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="P96" s="13"/>
+      <c r="P96" s="12"/>
     </row>
     <row r="97" spans="1:16" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12">
+      <c r="A97" s="11">
         <v>310</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12">
-        <v>1</v>
-      </c>
-      <c r="H97" s="12"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11">
+        <v>1</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
       <c r="N97" s="8"/>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="P97" s="13"/>
+      <c r="P97" s="12"/>
     </row>
     <row r="98" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A98" s="12">
+      <c r="A98" s="11">
         <v>326</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12">
-        <v>1</v>
-      </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11">
+        <v>1</v>
+      </c>
+      <c r="H98" s="11"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
       <c r="N98" s="8"/>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="P98" s="13"/>
+      <c r="P98" s="12"/>
     </row>
     <row r="99" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A99" s="12">
+      <c r="A99" s="11">
         <v>283</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12">
-        <v>1</v>
-      </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11">
+        <v>1</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
       <c r="N99" s="8"/>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P99" s="13"/>
+      <c r="P99" s="12"/>
     </row>
     <row r="100" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A100" s="12">
+      <c r="A100" s="11">
         <v>98</v>
       </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12">
-        <v>1</v>
-      </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11">
+        <v>1</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
       <c r="N100" s="8"/>
-      <c r="O100" s="11" t="s">
+      <c r="O100" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="P100" s="13"/>
+      <c r="P100" s="12"/>
     </row>
     <row r="101" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A101" s="12">
+      <c r="A101" s="11">
         <v>194</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12">
-        <v>1</v>
-      </c>
-      <c r="H101" s="12"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11">
+        <v>1</v>
+      </c>
+      <c r="H101" s="11"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
       <c r="N101" s="8"/>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="P101" s="13"/>
+      <c r="P101" s="12"/>
     </row>
     <row r="102" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A102" s="12">
+      <c r="A102" s="11">
         <v>340</v>
       </c>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12">
-        <v>1</v>
-      </c>
-      <c r="H102" s="12"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11">
+        <v>1</v>
+      </c>
+      <c r="H102" s="11"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
       <c r="N102" s="8"/>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="P102" s="13"/>
+      <c r="P102" s="12"/>
     </row>
     <row r="103" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A103" s="12">
+      <c r="A103" s="11">
         <v>115</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12">
-        <v>1</v>
-      </c>
-      <c r="H103" s="12"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11">
+        <v>1</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
       <c r="N103" s="8"/>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="P103" s="13"/>
+      <c r="P103" s="12"/>
     </row>
     <row r="104" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A104" s="12">
+      <c r="A104" s="11">
         <v>151</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12">
-        <v>1</v>
-      </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11">
+        <v>1</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
       <c r="N104" s="8"/>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A105" s="12">
+      <c r="A105" s="11">
         <v>188</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12">
-        <v>1</v>
-      </c>
-      <c r="H105" s="12"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11">
+        <v>1</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
       <c r="N105" s="8"/>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A106" s="12">
+      <c r="A106" s="11">
         <v>203</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12">
-        <v>1</v>
-      </c>
-      <c r="H106" s="12"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11">
+        <v>1</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
       <c r="N106" s="8"/>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="12">
+      <c r="A107" s="11">
         <v>288</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12">
-        <v>1</v>
-      </c>
-      <c r="H107" s="12"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11">
+        <v>1</v>
+      </c>
+      <c r="H107" s="11"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
       <c r="N107" s="8"/>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A108" s="12">
+      <c r="A108" s="11">
         <v>335</v>
       </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12">
-        <v>1</v>
-      </c>
-      <c r="H108" s="12"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11">
+        <v>1</v>
+      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
       <c r="N108" s="8"/>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A109" s="12">
+      <c r="A109" s="11">
         <v>370</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12">
-        <v>1</v>
-      </c>
-      <c r="H109" s="12"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11">
+        <v>1</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
       <c r="N109" s="8"/>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A110" s="12">
+      <c r="A110" s="11">
         <v>375</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12">
-        <v>1</v>
-      </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11">
+        <v>1</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
       <c r="N110" s="8"/>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A111" s="12">
+      <c r="A111" s="11">
         <v>431</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12">
-        <v>1</v>
-      </c>
-      <c r="H111" s="12"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11">
+        <v>1</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
       <c r="N111" s="8"/>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="A112" s="12">
+      <c r="A112" s="11">
         <v>442</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12">
-        <v>1</v>
-      </c>
-      <c r="H112" s="12"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11">
+        <v>1</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
       <c r="N112" s="8"/>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A113" s="12">
+      <c r="A113" s="11">
         <v>463</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12">
-        <v>1</v>
-      </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11">
+        <v>1</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
       <c r="N113" s="8"/>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A114" s="12">
+      <c r="A114" s="11">
         <v>469</v>
       </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12">
-        <v>1</v>
-      </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11">
+        <v>1</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
       <c r="N114" s="8"/>
-      <c r="O114" s="11" t="s">
+      <c r="O114" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A115" s="12">
+      <c r="A115" s="11">
         <v>43</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12">
-        <v>1</v>
-      </c>
-      <c r="H115" s="12"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11">
+        <v>1</v>
+      </c>
+      <c r="H115" s="11"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
       <c r="N115" s="8"/>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A116" s="12">
+      <c r="A116" s="11">
         <v>127</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12">
-        <v>1</v>
-      </c>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11">
+        <v>1</v>
+      </c>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
       <c r="N116" s="8"/>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A117" s="12">
+      <c r="A117" s="11">
         <v>359</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11">
         <v>1</v>
       </c>
       <c r="I117" s="7"/>
@@ -4760,265 +5433,265 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
       <c r="N117" s="8"/>
-      <c r="O117" s="11" t="s">
+      <c r="O117" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A118" s="12">
+      <c r="A118" s="11">
         <v>410</v>
       </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12">
-        <v>1</v>
-      </c>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11">
+        <v>1</v>
+      </c>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
       <c r="N118" s="8"/>
-      <c r="O118" s="11" t="s">
+      <c r="O118" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A119" s="12">
+      <c r="A119" s="11">
         <v>279</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12">
-        <v>1</v>
-      </c>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11">
+        <v>1</v>
+      </c>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
       <c r="N119" s="8"/>
-      <c r="O119" s="11" t="s">
+      <c r="O119" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A120" s="12">
+      <c r="A120" s="11">
         <v>369</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12">
-        <v>1</v>
-      </c>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11">
+        <v>1</v>
+      </c>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
       <c r="N120" s="8"/>
-      <c r="O120" s="11" t="s">
+      <c r="O120" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A121" s="12">
+      <c r="A121" s="11">
         <v>396</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12">
-        <v>1</v>
-      </c>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11">
+        <v>1</v>
+      </c>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
       <c r="N121" s="8"/>
-      <c r="O121" s="11" t="s">
+      <c r="O121" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" s="12">
+      <c r="A122" s="11">
         <v>82</v>
       </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12">
-        <v>1</v>
-      </c>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="10"/>
-      <c r="M122" s="10"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11">
+        <v>1</v>
+      </c>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
       <c r="N122" s="8"/>
-      <c r="O122" s="11" t="s">
+      <c r="O122" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A123" s="12">
+      <c r="A123" s="11">
         <v>204</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12">
-        <v>1</v>
-      </c>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11">
+        <v>1</v>
+      </c>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
       <c r="N123" s="8"/>
-      <c r="O123" s="11" t="s">
+      <c r="O123" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A124" s="12">
+      <c r="A124" s="11">
         <v>352</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12">
-        <v>1</v>
-      </c>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11">
+        <v>1</v>
+      </c>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
       <c r="N124" s="8"/>
-      <c r="O124" s="11" t="s">
+      <c r="O124" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A125" s="12">
+      <c r="A125" s="11">
         <v>139</v>
       </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12">
-        <v>1</v>
-      </c>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11">
+        <v>1</v>
+      </c>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
       <c r="N125" s="8"/>
-      <c r="O125" s="11" t="s">
+      <c r="O125" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A126" s="12">
+      <c r="A126" s="11">
         <v>349</v>
       </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12">
-        <v>1</v>
-      </c>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11">
+        <v>1</v>
+      </c>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
       <c r="N126" s="8"/>
-      <c r="O126" s="11" t="s">
+      <c r="O126" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A127" s="12">
+      <c r="A127" s="11">
         <v>378</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12">
-        <v>1</v>
-      </c>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11">
+        <v>1</v>
+      </c>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
       <c r="N127" s="8"/>
-      <c r="O127" s="11" t="s">
+      <c r="O127" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H128" s="12"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
       <c r="N128" s="8"/>
-      <c r="O128" s="11"/>
+      <c r="O128" s="10"/>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
       <c r="N129" s="8"/>
-      <c r="O129" s="11"/>
+      <c r="O129" s="10"/>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
       <c r="N130" s="8"/>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.3">
@@ -5030,43 +5703,43 @@
       <c r="N131" s="8"/>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
+      <c r="I132" s="7"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
       <c r="N132" s="8"/>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
       <c r="N133" s="8"/>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
+      <c r="I134" s="7"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
       <c r="N134" s="8"/>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
       <c r="N135" s="8"/>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
+      <c r="I136" s="7"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
       <c r="N136" s="8"/>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.3">
@@ -5078,19 +5751,19 @@
       <c r="N137" s="8"/>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
       <c r="N138" s="8"/>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
       <c r="N139" s="8"/>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.3">
@@ -5102,27 +5775,27 @@
       <c r="N140" s="8"/>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
+      <c r="I141" s="7"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
       <c r="N141" s="8"/>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
       <c r="N142" s="8"/>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
       <c r="N143" s="8"/>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.3">
@@ -5142,27 +5815,27 @@
       <c r="N145" s="8"/>
     </row>
     <row r="146" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
       <c r="N146" s="8"/>
     </row>
     <row r="147" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
       <c r="N147" s="8"/>
     </row>
     <row r="148" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
       <c r="N148" s="8"/>
     </row>
     <row r="149" spans="9:14" x14ac:dyDescent="0.3">
@@ -5182,35 +5855,35 @@
       <c r="N150" s="8"/>
     </row>
     <row r="151" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
       <c r="N151" s="8"/>
     </row>
     <row r="152" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10"/>
-      <c r="M152" s="10"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
       <c r="N152" s="8"/>
     </row>
     <row r="153" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
-      <c r="L153" s="10"/>
-      <c r="M153" s="10"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
       <c r="N153" s="8"/>
     </row>
     <row r="154" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
       <c r="N154" s="8"/>
     </row>
     <row r="155" spans="9:14" x14ac:dyDescent="0.3">
@@ -5222,171 +5895,171 @@
       <c r="N155" s="8"/>
     </row>
     <row r="156" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
       <c r="N156" s="8"/>
     </row>
     <row r="157" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
       <c r="N157" s="8"/>
     </row>
     <row r="158" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
       <c r="N158" s="8"/>
     </row>
     <row r="159" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
       <c r="N159" s="8"/>
     </row>
     <row r="160" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-      <c r="L160" s="10"/>
-      <c r="M160" s="10"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
       <c r="N160" s="8"/>
     </row>
     <row r="161" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="10"/>
-      <c r="M161" s="10"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
       <c r="N161" s="8"/>
     </row>
     <row r="162" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
-      <c r="L162" s="10"/>
-      <c r="M162" s="10"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
       <c r="N162" s="8"/>
     </row>
     <row r="163" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
-      <c r="L163" s="10"/>
-      <c r="M163" s="10"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
       <c r="N163" s="8"/>
     </row>
     <row r="164" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
-      <c r="L164" s="10"/>
-      <c r="M164" s="10"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
       <c r="N164" s="8"/>
     </row>
     <row r="165" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
-      <c r="L165" s="10"/>
-      <c r="M165" s="10"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
       <c r="N165" s="8"/>
     </row>
     <row r="166" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-      <c r="L166" s="10"/>
-      <c r="M166" s="10"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
       <c r="N166" s="8"/>
     </row>
     <row r="167" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
-      <c r="L167" s="10"/>
-      <c r="M167" s="10"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
       <c r="N167" s="8"/>
     </row>
     <row r="168" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I168" s="10"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="10"/>
-      <c r="L168" s="10"/>
-      <c r="M168" s="10"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
       <c r="N168" s="8"/>
     </row>
     <row r="169" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I169" s="10"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="10"/>
-      <c r="L169" s="10"/>
-      <c r="M169" s="10"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
       <c r="N169" s="8"/>
     </row>
     <row r="170" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
-      <c r="L170" s="10"/>
-      <c r="M170" s="10"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
       <c r="N170" s="8"/>
     </row>
     <row r="171" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I171" s="10"/>
-      <c r="J171" s="10"/>
-      <c r="K171" s="10"/>
-      <c r="L171" s="10"/>
-      <c r="M171" s="10"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
       <c r="N171" s="8"/>
     </row>
     <row r="172" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="10"/>
-      <c r="M172" s="10"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
       <c r="N172" s="8"/>
     </row>
     <row r="173" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
-      <c r="M173" s="10"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
       <c r="N173" s="8"/>
     </row>
     <row r="174" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
-      <c r="L174" s="10"/>
-      <c r="M174" s="10"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
       <c r="N174" s="8"/>
     </row>
     <row r="175" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="10"/>
-      <c r="M175" s="10"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
       <c r="N175" s="8"/>
     </row>
     <row r="176" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
-      <c r="L176" s="10"/>
-      <c r="M176" s="10"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
       <c r="N176" s="8"/>
     </row>
   </sheetData>
@@ -5414,636 +6087,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A104:A1048576">
-    <cfRule type="cellIs" dxfId="125" priority="383" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="124" priority="331" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="123" priority="286" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="122" priority="285" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="121" priority="281" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="120" priority="280" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="119" priority="276" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="118" priority="275" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="117" priority="271" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="116" priority="270" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="115" priority="266" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="114" priority="265" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="113" priority="261" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="112" priority="260" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="111" priority="256" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="110" priority="255" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="109" priority="251" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="108" priority="250" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="107" priority="246" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="106" priority="245" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="105" priority="241" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="104" priority="240" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="103" priority="236" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="102" priority="235" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:G1">
-    <cfRule type="cellIs" dxfId="101" priority="231" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P14">
-    <cfRule type="cellIs" dxfId="100" priority="230" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P14">
-    <cfRule type="cellIs" dxfId="99" priority="229" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="98" priority="226" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="97" priority="225" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="96" priority="224" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="95" priority="223" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="94" priority="222" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="93" priority="221" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="92" priority="218" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="91" priority="217" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="90" priority="216" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="89" priority="215" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="88" priority="214" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="87" priority="213" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="86" priority="200" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="85" priority="199" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="84" priority="195" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="83" priority="194" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="82" priority="190" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="81" priority="189" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="80" priority="185" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="79" priority="184" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="78" priority="180" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="77" priority="179" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="76" priority="175" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="75" priority="174" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="74" priority="170" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="73" priority="169" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="72" priority="165" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="71" priority="164" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P22">
-    <cfRule type="cellIs" dxfId="70" priority="160" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P22">
-    <cfRule type="cellIs" dxfId="69" priority="159" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="68" priority="156" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
-    <cfRule type="cellIs" dxfId="67" priority="155" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="66" priority="152" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="cellIs" dxfId="65" priority="151" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="64" priority="148" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" dxfId="63" priority="147" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="62" priority="144" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
-    <cfRule type="cellIs" dxfId="61" priority="143" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A24">
-    <cfRule type="cellIs" dxfId="60" priority="136" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="59" priority="135" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="58" priority="130" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="57" priority="134" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="56" priority="129" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="55" priority="125" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="54" priority="124" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="53" priority="120" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="52" priority="119" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="51" priority="115" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="50" priority="114" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="49" priority="110" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="48" priority="109" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="47" priority="105" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="46" priority="104" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="45" priority="100" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="44" priority="99" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="43" priority="95" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="42" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23:P33">
-    <cfRule type="cellIs" dxfId="41" priority="90" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="40" priority="89" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A52">
-    <cfRule type="cellIs" dxfId="39" priority="88" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P34:P52">
-    <cfRule type="cellIs" dxfId="38" priority="87" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" dxfId="37" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" dxfId="36" priority="82" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" dxfId="35" priority="81" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" dxfId="34" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" dxfId="33" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="32" priority="67" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="31" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="30" priority="57" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="cellIs" dxfId="29" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="27" priority="47" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="cellIs" dxfId="26" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="25" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A68">
-    <cfRule type="cellIs" dxfId="17" priority="86" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" dxfId="16" priority="72" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="15" priority="66" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="14" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="13" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="cellIs" dxfId="11" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P53:P81">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:A103">
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P82:P103">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O97">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O7:O11">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O44:O52">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O98:O102">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O103:O129">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
